--- a/biology/Botanique/Picea_aurantiaca/Picea_aurantiaca.xlsx
+++ b/biology/Botanique/Picea_aurantiaca/Picea_aurantiaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picea aurantiaca est une espèce de conifères de la famille des Pinaceae. Elle ne se trouve qu'en Chine. Cette espèce est fortement menacée par la dégradation de son habitat naturel et considérée comme pratiquement éteinte.
 </t>
